--- a/Java/Covid/Files/3C.xlsx
+++ b/Java/Covid/Files/3C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">PORADI</t>
   </si>
@@ -31,16 +31,55 @@
     <t xml:space="preserve">CAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pankaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prakashni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virat</t>
+    <t xml:space="preserve">Buriánek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janoštík </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadlčák </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kašpárek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolařík </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotík </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máčalík </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novotný </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluháček </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaštík </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Šimůnek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Večeřa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahradník </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapletal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zlámal </t>
   </si>
 </sst>
 </file>
@@ -55,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,13 +154,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,13 +184,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -159,41 +203,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Java/Covid/Files/3C.xlsx
+++ b/Java/Covid/Files/3C.xlsx
@@ -187,12 +187,12 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -315,7 +315,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -323,7 +323,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
